--- a/WNV Surveillance 2015-2023/WNV-s 2023 (LNW)/Week 26/FC_LV q-RTPCR Plate 2023 Week 26.xlsx
+++ b/WNV Surveillance 2015-2023/WNV-s 2023 (LNW)/Week 26/FC_LV q-RTPCR Plate 2023 Week 26.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Rsch-Ebel\WNV Surveillance 2015-2023\WNV-s 2023 (LNW)\Week 26\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Programming Directory/Ebel Lab/WNV_FoCo_Surveillance/WNV Surveillance 2015-2023/WNV-s 2023 (LNW)/Week 26/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E85AFA-E1AE-464C-B753-36ADB1737DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9778C2CF-A665-474A-B8D7-4A1AF2EB0EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="885" windowWidth="17880" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="280" yWindow="880" windowWidth="24380" windowHeight="14800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$N$1:$AD$55</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$N$1:$AC$55</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="347">
   <si>
     <t>q-RT PCR : WNV Surveillance 2023 Week 26 plate 1</t>
   </si>
@@ -1086,7 +1086,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2000,33 +2000,32 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AE92"/>
+  <dimension ref="A1:AD92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" customWidth="1"/>
-    <col min="2" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" customWidth="1"/>
+    <col min="2" max="6" width="12.5" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.28515625" customWidth="1"/>
-    <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" customWidth="1"/>
+    <col min="17" max="17" width="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2041,9 +2040,8 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-    </row>
-    <row r="2" spans="1:31" ht="15.75" thickBot="1">
+    </row>
+    <row r="2" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="80" t="s">
         <v>0</v>
       </c>
@@ -2061,22 +2059,22 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="P2" s="80" t="s">
+      <c r="O2" s="80" t="s">
         <v>0</v>
       </c>
+      <c r="P2" s="80"/>
       <c r="Q2" s="80"/>
       <c r="R2" s="80"/>
       <c r="S2" s="80"/>
       <c r="T2" s="80"/>
       <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="81" t="s">
+      <c r="V2" s="20"/>
+      <c r="W2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="Y2" s="81"/>
-    </row>
-    <row r="3" spans="1:31" ht="15.75" thickBot="1">
+      <c r="X2" s="81"/>
+    </row>
+    <row r="3" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
       <c r="B3" s="2">
         <v>1</v>
@@ -2114,49 +2112,49 @@
       <c r="M3" s="4">
         <v>12</v>
       </c>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="21">
+      <c r="O3" s="7"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="21">
         <v>1</v>
       </c>
+      <c r="R3" s="22">
+        <v>2</v>
+      </c>
       <c r="S3" s="22">
+        <v>3</v>
+      </c>
+      <c r="T3" s="22">
+        <v>4</v>
+      </c>
+      <c r="U3" s="22">
+        <v>5</v>
+      </c>
+      <c r="V3" s="22">
+        <v>6</v>
+      </c>
+      <c r="W3" s="22">
+        <v>7</v>
+      </c>
+      <c r="X3" s="22">
+        <v>8</v>
+      </c>
+      <c r="Y3" s="22">
+        <v>9</v>
+      </c>
+      <c r="Z3" s="22">
+        <v>10</v>
+      </c>
+      <c r="AA3" s="22">
+        <v>11</v>
+      </c>
+      <c r="AB3" s="23">
+        <v>12</v>
+      </c>
+      <c r="AD3" t="s">
         <v>2</v>
       </c>
-      <c r="T3" s="22">
-        <v>3</v>
-      </c>
-      <c r="U3" s="22">
-        <v>4</v>
-      </c>
-      <c r="V3" s="22">
-        <v>5</v>
-      </c>
-      <c r="W3" s="22">
-        <v>6</v>
-      </c>
-      <c r="X3" s="22">
-        <v>7</v>
-      </c>
-      <c r="Y3" s="22">
-        <v>8</v>
-      </c>
-      <c r="Z3" s="22">
-        <v>9</v>
-      </c>
-      <c r="AA3" s="22">
-        <v>10</v>
-      </c>
-      <c r="AB3" s="22">
-        <v>11</v>
-      </c>
-      <c r="AC3" s="23">
-        <v>12</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31">
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -2196,13 +2194,16 @@
       <c r="M4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="O4" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="24" t="s">
+      <c r="P4" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="R4" s="43" t="s">
+      <c r="Q4" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="R4" s="41" t="s">
         <v>17</v>
       </c>
       <c r="S4" s="41" t="s">
@@ -2232,17 +2233,14 @@
       <c r="AA4" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="AB4" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC4" s="42" t="s">
+      <c r="AB4" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="AE4" s="49" t="s">
+      <c r="AD4" s="49" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
@@ -2282,48 +2280,48 @@
       <c r="M5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="25" t="s">
+      <c r="O5" s="78"/>
+      <c r="P5" s="25" t="s">
         <v>31</v>
       </c>
+      <c r="Q5" s="29" t="s">
+        <v>4</v>
+      </c>
       <c r="R5" s="29" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S5" s="29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T5" s="29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U5" s="29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V5" s="29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W5" s="29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X5" s="29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y5" s="29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z5" s="29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA5" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB5" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="AC5" s="33">
+      <c r="AB5" s="33">
         <v>10000000</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="15.75" thickBot="1">
+    <row r="6" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>32</v>
       </c>
@@ -2363,48 +2361,48 @@
       <c r="M6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P6" s="79"/>
-      <c r="Q6" s="26" t="s">
+      <c r="O6" s="79"/>
+      <c r="P6" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="R6" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="S6" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="T6" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="U6" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="V6" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="W6" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="X6" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y6" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z6" s="44" t="s">
+      <c r="Q6" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="R6" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="S6" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="T6" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="U6" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="V6" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="W6" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="X6" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y6" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z6" s="30" t="s">
         <v>45</v>
       </c>
       <c r="AA6" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="AB6" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC6" s="34">
+      <c r="AB6" s="34">
         <v>19.295978546142578</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>46</v>
       </c>
@@ -2444,13 +2442,16 @@
       <c r="M7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P7" s="77" t="s">
+      <c r="O7" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="24" t="s">
+      <c r="P7" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="R7" s="43" t="s">
+      <c r="Q7" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="R7" s="41" t="s">
         <v>17</v>
       </c>
       <c r="S7" s="41" t="s">
@@ -2480,14 +2481,11 @@
       <c r="AA7" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="AB7" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC7" s="32" t="s">
+      <c r="AB7" s="32" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>58</v>
       </c>
@@ -2527,48 +2525,48 @@
       <c r="M8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P8" s="78"/>
-      <c r="Q8" s="25" t="s">
+      <c r="O8" s="78"/>
+      <c r="P8" s="25" t="s">
         <v>31</v>
       </c>
+      <c r="Q8" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="R8" s="29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S8" s="29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T8" s="29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U8" s="29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="V8" s="29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="W8" s="29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="X8" s="29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y8" s="29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z8" s="29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AA8" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB8" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="AC8" s="33">
+      <c r="AB8" s="33">
         <v>1000000</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="15.75" thickBot="1">
+    <row r="9" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>70</v>
       </c>
@@ -2608,48 +2606,48 @@
       <c r="M9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P9" s="79"/>
-      <c r="Q9" s="26" t="s">
+      <c r="O9" s="79"/>
+      <c r="P9" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="R9" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="S9" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="T9" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="U9" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="V9" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="W9" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="X9" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y9" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z9" s="44" t="s">
+      <c r="Q9" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="R9" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="S9" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="T9" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="U9" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="V9" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="W9" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="X9" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y9" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z9" s="30" t="s">
         <v>45</v>
       </c>
       <c r="AA9" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="AB9" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC9" s="34">
+      <c r="AB9" s="34">
         <v>22.441640853881836</v>
       </c>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>82</v>
       </c>
@@ -2689,13 +2687,16 @@
       <c r="M10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P10" s="77" t="s">
+      <c r="O10" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="Q10" s="24" t="s">
+      <c r="P10" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="R10" s="43" t="s">
+      <c r="Q10" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="R10" s="41" t="s">
         <v>17</v>
       </c>
       <c r="S10" s="41" t="s">
@@ -2725,14 +2726,11 @@
       <c r="AA10" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="AB10" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC10" s="32" t="s">
+      <c r="AB10" s="32" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="15.75" thickBot="1">
+    <row r="11" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>94</v>
       </c>
@@ -2770,98 +2768,101 @@
         <v>105</v>
       </c>
       <c r="M11" s="8"/>
-      <c r="P11" s="78"/>
-      <c r="Q11" s="25" t="s">
+      <c r="O11" s="78"/>
+      <c r="P11" s="25" t="s">
         <v>31</v>
       </c>
+      <c r="Q11" s="29" t="s">
+        <v>33</v>
+      </c>
       <c r="R11" s="29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S11" s="29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T11" s="29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U11" s="29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="V11" s="29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="W11" s="29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="X11" s="29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y11" s="29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z11" s="29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AA11" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB11" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="AC11" s="33">
+      <c r="AB11" s="33">
         <v>100000</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="15.75" thickBot="1">
-      <c r="P12" s="79"/>
-      <c r="Q12" s="26" t="s">
+    <row r="12" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O12" s="79"/>
+      <c r="P12" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="R12" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="S12" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="T12" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="U12" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="V12" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="W12" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="X12" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y12" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z12" s="44" t="s">
+      <c r="Q12" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="R12" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="S12" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="T12" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="U12" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="V12" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="W12" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="X12" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y12" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z12" s="30" t="s">
         <v>45</v>
       </c>
       <c r="AA12" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="AB12" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC12" s="34">
+      <c r="AB12" s="34">
         <v>25.750595092773438</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D13" s="18"/>
-      <c r="P13" s="77" t="s">
+      <c r="O13" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="Q13" s="24" t="s">
+      <c r="P13" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="R13" s="43" t="s">
+      <c r="Q13" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="R13" s="41" t="s">
         <v>17</v>
       </c>
       <c r="S13" s="41" t="s">
@@ -2891,58 +2892,55 @@
       <c r="AA13" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="AB13" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC13" s="32" t="s">
+      <c r="AB13" s="32" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="I14" s="83"/>
       <c r="J14" s="83"/>
-      <c r="P14" s="78"/>
-      <c r="Q14" s="25" t="s">
+      <c r="O14" s="78"/>
+      <c r="P14" s="25" t="s">
         <v>31</v>
       </c>
+      <c r="Q14" s="29" t="s">
+        <v>47</v>
+      </c>
       <c r="R14" s="29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S14" s="29" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T14" s="29" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U14" s="29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V14" s="29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W14" s="29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="X14" s="29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Y14" s="29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Z14" s="29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AA14" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB14" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="AC14" s="33">
+      <c r="AB14" s="33">
         <v>10000</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="15.75" thickBot="1">
+    <row r="15" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="82" t="s">
         <v>106</v>
       </c>
@@ -2960,48 +2958,48 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="P15" s="79"/>
-      <c r="Q15" s="26" t="s">
+      <c r="O15" s="79"/>
+      <c r="P15" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="R15" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="S15" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="T15" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="U15" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="V15" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="W15" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="X15" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y15" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z15" s="44" t="s">
+      <c r="Q15" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="R15" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="S15" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="T15" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="U15" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="V15" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="W15" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="X15" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y15" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z15" s="30" t="s">
         <v>45</v>
       </c>
       <c r="AA15" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="AB15" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC15" s="34">
+      <c r="AB15" s="34">
         <v>28.867515563964844</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="15.75" thickBot="1">
+    <row r="16" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="2">
         <v>1</v>
@@ -3039,13 +3037,16 @@
       <c r="M16" s="4">
         <v>12</v>
       </c>
-      <c r="P16" s="77" t="s">
+      <c r="O16" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="Q16" s="24" t="s">
+      <c r="P16" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="R16" s="43" t="s">
+      <c r="Q16" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="R16" s="41" t="s">
         <v>17</v>
       </c>
       <c r="S16" s="41" t="s">
@@ -3075,14 +3076,11 @@
       <c r="AA16" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="AB16" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC16" s="32" t="s">
+      <c r="AB16" s="32" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:31">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>3</v>
       </c>
@@ -3122,48 +3120,48 @@
       <c r="M17" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="P17" s="78"/>
-      <c r="Q17" s="25" t="s">
+      <c r="O17" s="78"/>
+      <c r="P17" s="25" t="s">
         <v>31</v>
       </c>
+      <c r="Q17" s="29" t="s">
+        <v>59</v>
+      </c>
       <c r="R17" s="29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S17" s="29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T17" s="29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U17" s="29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V17" s="29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W17" s="29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="X17" s="29" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Y17" s="29" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Z17" s="29" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AA17" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB17" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="AC17" s="35">
+      <c r="AB17" s="35">
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="15.75" thickBot="1">
+    <row r="18" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
@@ -3203,48 +3201,48 @@
       <c r="M18" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="P18" s="79"/>
-      <c r="Q18" s="26" t="s">
+      <c r="O18" s="79"/>
+      <c r="P18" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="R18" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="S18" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="T18" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="U18" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="V18" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="W18" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="X18" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y18" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z18" s="44" t="s">
+      <c r="Q18" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="R18" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="S18" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="T18" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="U18" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="V18" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="W18" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="X18" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y18" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z18" s="30" t="s">
         <v>45</v>
       </c>
       <c r="AA18" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="AB18" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC18" s="34">
+      <c r="AB18" s="34">
         <v>32.535915374755859</v>
       </c>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>32</v>
       </c>
@@ -3284,13 +3282,16 @@
       <c r="M19" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="P19" s="77" t="s">
+      <c r="O19" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="Q19" s="24" t="s">
+      <c r="P19" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="R19" s="43" t="s">
+      <c r="Q19" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="R19" s="41" t="s">
         <v>17</v>
       </c>
       <c r="S19" s="41" t="s">
@@ -3317,17 +3318,14 @@
       <c r="Z19" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="AA19" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB19" s="36" t="s">
+      <c r="AA19" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="AC19" s="32" t="s">
+      <c r="AB19" s="32" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>46</v>
       </c>
@@ -3367,48 +3365,48 @@
       <c r="M20" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="P20" s="78"/>
-      <c r="Q20" s="25" t="s">
+      <c r="O20" s="78"/>
+      <c r="P20" s="25" t="s">
         <v>31</v>
       </c>
+      <c r="Q20" s="29" t="s">
+        <v>71</v>
+      </c>
       <c r="R20" s="29" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S20" s="29" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T20" s="29" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U20" s="29" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V20" s="29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W20" s="29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X20" s="29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y20" s="29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Z20" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA20" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="AB20" s="28" t="s">
+      <c r="AA20" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="AC20" s="35">
+      <c r="AB20" s="35">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="15.75" thickBot="1">
+    <row r="21" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>58</v>
       </c>
@@ -3448,48 +3446,48 @@
       <c r="M21" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="P21" s="79"/>
-      <c r="Q21" s="26" t="s">
+      <c r="O21" s="79"/>
+      <c r="P21" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="R21" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="S21" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="T21" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="U21" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="V21" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="W21" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="X21" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y21" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z21" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA21" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB21" s="68">
+      <c r="Q21" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="R21" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="S21" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="T21" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="U21" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="V21" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="W21" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="X21" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y21" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z21" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA21" s="68">
         <v>20.991220474243164</v>
       </c>
-      <c r="AC21" s="34">
+      <c r="AB21" s="34">
         <v>34.884418487548828</v>
       </c>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>70</v>
       </c>
@@ -3529,13 +3527,16 @@
       <c r="M22" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="P22" s="77" t="s">
+      <c r="O22" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="Q22" s="24" t="s">
+      <c r="P22" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="R22" s="43" t="s">
+      <c r="Q22" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="R22" s="41" t="s">
         <v>17</v>
       </c>
       <c r="S22" s="41" t="s">
@@ -3562,17 +3563,14 @@
       <c r="Z22" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="AA22" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB22" s="36" t="s">
+      <c r="AA22" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="AC22" s="37" t="s">
+      <c r="AB22" s="37" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>82</v>
       </c>
@@ -3612,48 +3610,48 @@
       <c r="M23" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="P23" s="78"/>
-      <c r="Q23" s="25" t="s">
+      <c r="O23" s="78"/>
+      <c r="P23" s="25" t="s">
         <v>31</v>
       </c>
+      <c r="Q23" s="29" t="s">
+        <v>83</v>
+      </c>
       <c r="R23" s="29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="S23" s="29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="T23" s="29" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="U23" s="29" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="V23" s="29" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="W23" s="29" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X23" s="29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Y23" s="29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Z23" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA23" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="AB23" s="28" t="s">
+      <c r="AA23" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="AC23" s="35">
+      <c r="AB23" s="35">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="15.75" thickBot="1">
+    <row r="24" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>94</v>
       </c>
@@ -3691,55 +3689,58 @@
         <v>105</v>
       </c>
       <c r="M24" s="17"/>
-      <c r="P24" s="79"/>
-      <c r="Q24" s="26" t="s">
+      <c r="O24" s="79"/>
+      <c r="P24" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="R24" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="S24" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="T24" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="U24" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="V24" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="W24" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="X24" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y24" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z24" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA24" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB24" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC24" s="34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31">
-      <c r="P25" s="77" t="s">
+      <c r="Q24" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="R24" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="S24" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="T24" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="U24" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="V24" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="W24" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="X24" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y24" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z24" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA24" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB24" s="34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="O25" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="Q25" s="24" t="s">
+      <c r="P25" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="R25" s="43" t="s">
+      <c r="Q25" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="R25" s="41" t="s">
         <v>17</v>
       </c>
       <c r="S25" s="41" t="s">
@@ -3766,95 +3767,92 @@
       <c r="Z25" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="AA25" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB25" s="36" t="s">
+      <c r="AA25" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="AC25" s="38"/>
-    </row>
-    <row r="26" spans="1:31">
-      <c r="P26" s="78"/>
-      <c r="Q26" s="25" t="s">
+      <c r="AB25" s="38"/>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="O26" s="78"/>
+      <c r="P26" s="25" t="s">
         <v>31</v>
       </c>
+      <c r="Q26" s="29" t="s">
+        <v>95</v>
+      </c>
       <c r="R26" s="29" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="S26" s="29" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="T26" s="29" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U26" s="29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="V26" s="29" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="W26" s="29" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="X26" s="29" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Y26" s="29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Z26" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA26" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="AB26" s="28" t="s">
+      <c r="AA26" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="AC26" s="39"/>
-    </row>
-    <row r="27" spans="1:31" ht="15.75" thickBot="1">
-      <c r="P27" s="79"/>
-      <c r="Q27" s="26" t="s">
+      <c r="AB26" s="39"/>
+    </row>
+    <row r="27" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O27" s="79"/>
+      <c r="P27" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="R27" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="S27" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="T27" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="U27" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="V27" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="W27" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="X27" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y27" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z27" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA27" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB27" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC27" s="38"/>
-    </row>
-    <row r="28" spans="1:31" ht="15.75" thickBot="1">
+      <c r="Q27" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="R27" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="S27" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="T27" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="U27" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="V27" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="W27" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="X27" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y27" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z27" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA27" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB27" s="38"/>
+    </row>
+    <row r="28" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="80" t="s">
         <v>195</v>
       </c>
@@ -3873,7 +3871,7 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="1:31" ht="15.75" thickBot="1">
+    <row r="29" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="2">
         <v>1</v>
@@ -3911,22 +3909,22 @@
       <c r="M29" s="4">
         <v>12</v>
       </c>
-      <c r="P29" s="80" t="s">
+      <c r="O29" s="80" t="s">
         <v>106</v>
       </c>
+      <c r="P29" s="80"/>
       <c r="Q29" s="80"/>
       <c r="R29" s="80"/>
       <c r="S29" s="80"/>
       <c r="T29" s="80"/>
       <c r="U29" s="80"/>
-      <c r="V29" s="80"/>
-      <c r="W29" s="20"/>
-      <c r="X29" s="81" t="s">
+      <c r="V29" s="20"/>
+      <c r="W29" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="Y29" s="81"/>
-    </row>
-    <row r="30" spans="1:31" ht="15.75" thickBot="1">
+      <c r="X29" s="81"/>
+    </row>
+    <row r="30" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>3</v>
       </c>
@@ -3964,49 +3962,49 @@
       <c r="M30" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="9"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="22">
+        <v>1</v>
+      </c>
       <c r="R30" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S30" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T30" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U30" s="22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V30" s="22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W30" s="22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X30" s="22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y30" s="22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z30" s="22">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA30" s="22">
-        <v>10</v>
-      </c>
-      <c r="AB30" s="22">
         <v>11</v>
       </c>
-      <c r="AC30" s="23">
+      <c r="AB30" s="23">
         <v>12</v>
       </c>
-      <c r="AE30" t="s">
+      <c r="AD30" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="31" spans="1:31">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>19</v>
       </c>
@@ -4044,13 +4042,16 @@
       <c r="M31" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P31" s="77" t="s">
+      <c r="O31" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="Q31" s="25" t="s">
+      <c r="P31" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="R31" s="43" t="s">
+      <c r="Q31" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="R31" s="41" t="s">
         <v>17</v>
       </c>
       <c r="S31" s="41" t="s">
@@ -4080,17 +4081,14 @@
       <c r="AA31" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="AB31" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC31" s="42" t="s">
+      <c r="AB31" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="AE31" s="49" t="s">
+      <c r="AD31" s="49" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="32" spans="1:31">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>32</v>
       </c>
@@ -4128,48 +4126,48 @@
       <c r="M32" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P32" s="78"/>
-      <c r="Q32" s="25" t="s">
+      <c r="O32" s="78"/>
+      <c r="P32" s="25" t="s">
         <v>31</v>
       </c>
+      <c r="Q32" s="29" t="s">
+        <v>107</v>
+      </c>
       <c r="R32" s="29" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="S32" s="29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="T32" s="29" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="U32" s="29" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="V32" s="29" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="W32" s="29" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="X32" s="29" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Y32" s="29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Z32" s="29" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AA32" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB32" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="AC32" s="33">
+      <c r="AB32" s="33">
         <v>10000000</v>
       </c>
     </row>
-    <row r="33" spans="1:29" ht="15.75" thickBot="1">
+    <row r="33" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>46</v>
       </c>
@@ -4207,48 +4205,48 @@
       <c r="M33" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P33" s="79"/>
-      <c r="Q33" s="25" t="s">
+      <c r="O33" s="79"/>
+      <c r="P33" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="R33" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="S33" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="T33" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="U33" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="V33" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="W33" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="X33" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y33" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z33" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA33" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB33" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC33" s="69">
+      <c r="Q33" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="R33" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="S33" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="T33" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="U33" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="V33" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="W33" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="X33" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y33" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z33" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA33" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB33" s="69">
         <v>11.266411781311035</v>
       </c>
     </row>
-    <row r="34" spans="1:29">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>58</v>
       </c>
@@ -4286,13 +4284,16 @@
       <c r="M34" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P34" s="78" t="s">
+      <c r="O34" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="Q34" s="25" t="s">
+      <c r="P34" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="R34" s="43" t="s">
+      <c r="Q34" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="R34" s="41" t="s">
         <v>17</v>
       </c>
       <c r="S34" s="41" t="s">
@@ -4322,14 +4323,11 @@
       <c r="AA34" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="AB34" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC34" s="32" t="s">
+      <c r="AB34" s="32" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:29">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>70</v>
       </c>
@@ -4367,48 +4365,48 @@
       <c r="M35" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P35" s="78"/>
-      <c r="Q35" s="25" t="s">
+      <c r="O35" s="78"/>
+      <c r="P35" s="25" t="s">
         <v>31</v>
       </c>
+      <c r="Q35" s="29" t="s">
+        <v>118</v>
+      </c>
       <c r="R35" s="29" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="S35" s="29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="T35" s="29" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="U35" s="29" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="V35" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="W35" s="29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="X35" s="29" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Y35" s="29" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Z35" s="29" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AA35" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB35" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="AC35" s="33">
+      <c r="AB35" s="33">
         <v>1000000</v>
       </c>
     </row>
-    <row r="36" spans="1:29" ht="15.75" thickBot="1">
+    <row r="36" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>82</v>
       </c>
@@ -4446,48 +4444,48 @@
       <c r="M36" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P36" s="78"/>
-      <c r="Q36" s="25" t="s">
+      <c r="O36" s="78"/>
+      <c r="P36" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="R36" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="S36" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="T36" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="U36" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="V36" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="W36" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="X36" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y36" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z36" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA36" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB36" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC36" s="69">
+      <c r="Q36" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="R36" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="S36" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="T36" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="U36" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="V36" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="W36" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="X36" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y36" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z36" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA36" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB36" s="69">
         <v>19.483467102050781</v>
       </c>
     </row>
-    <row r="37" spans="1:29" ht="15.75" thickBot="1">
+    <row r="37" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>94</v>
       </c>
@@ -4521,13 +4519,16 @@
       <c r="K37" s="8"/>
       <c r="L37" s="16"/>
       <c r="M37" s="8"/>
-      <c r="P37" s="77" t="s">
+      <c r="O37" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="Q37" s="25" t="s">
+      <c r="P37" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="R37" s="43" t="s">
+      <c r="Q37" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="R37" s="41" t="s">
         <v>17</v>
       </c>
       <c r="S37" s="41" t="s">
@@ -4557,56 +4558,53 @@
       <c r="AA37" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="AB37" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC37" s="32" t="s">
+      <c r="AB37" s="32" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:29">
-      <c r="P38" s="78"/>
-      <c r="Q38" s="25" t="s">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="O38" s="78"/>
+      <c r="P38" s="25" t="s">
         <v>31</v>
       </c>
+      <c r="Q38" s="29" t="s">
+        <v>129</v>
+      </c>
       <c r="R38" s="29" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="S38" s="29" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="T38" s="29" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="U38" s="29" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="V38" s="29" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="W38" s="29" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="X38" s="29" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Y38" s="29" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Z38" s="29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AA38" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="AB38" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="AC38" s="33">
+      <c r="AB38" s="33">
         <v>100000</v>
       </c>
     </row>
-    <row r="39" spans="1:29" ht="15.75" thickBot="1">
+    <row r="39" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="80" t="s">
         <v>277</v>
       </c>
@@ -4624,48 +4622,48 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
-      <c r="P39" s="79"/>
-      <c r="Q39" s="25" t="s">
+      <c r="O39" s="79"/>
+      <c r="P39" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="R39" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="S39" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="T39" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="U39" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="V39" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="W39" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="X39" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y39" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z39" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA39" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB39" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC39" s="69">
+      <c r="Q39" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="R39" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="S39" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="T39" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="U39" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="V39" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="W39" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="X39" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y39" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z39" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA39" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB39" s="69">
         <v>22.572784423828125</v>
       </c>
     </row>
-    <row r="40" spans="1:29" ht="15.75" thickBot="1">
+    <row r="40" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="2">
         <v>1</v>
@@ -4703,19 +4701,22 @@
       <c r="M40" s="4">
         <v>12</v>
       </c>
-      <c r="P40" s="78" t="s">
+      <c r="O40" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="Q40" s="25" t="s">
+      <c r="P40" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="R40" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="S40" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="T40" s="71" t="s">
+      <c r="Q40" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="R40" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="S40" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="T40" s="41" t="s">
         <v>17</v>
       </c>
       <c r="U40" s="41" t="s">
@@ -4739,14 +4740,11 @@
       <c r="AA40" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="AB40" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC40" s="32" t="s">
+      <c r="AB40" s="32" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:29">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>3</v>
       </c>
@@ -4780,48 +4778,48 @@
       <c r="M41" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P41" s="78"/>
-      <c r="Q41" s="25" t="s">
+      <c r="O41" s="78"/>
+      <c r="P41" s="25" t="s">
         <v>31</v>
       </c>
+      <c r="Q41" s="29" t="s">
+        <v>141</v>
+      </c>
       <c r="R41" s="29" t="s">
-        <v>141</v>
-      </c>
-      <c r="S41" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="T41" s="72" t="s">
+      <c r="S41" s="72" t="s">
         <v>143</v>
       </c>
+      <c r="T41" s="29" t="s">
+        <v>144</v>
+      </c>
       <c r="U41" s="29" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="V41" s="29" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="W41" s="29" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="X41" s="29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Y41" s="29" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Z41" s="29" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AA41" s="29" t="s">
-        <v>150</v>
-      </c>
-      <c r="AB41" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="AC41" s="33">
+      <c r="AB41" s="33">
         <v>10000</v>
       </c>
     </row>
-    <row r="42" spans="1:29" ht="15.75" thickBot="1">
+    <row r="42" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>19</v>
       </c>
@@ -4855,48 +4853,48 @@
       <c r="M42" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P42" s="78"/>
-      <c r="Q42" s="25" t="s">
+      <c r="O42" s="78"/>
+      <c r="P42" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="R42" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="S42" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="T42" s="73">
+      <c r="Q42" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="R42" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="S42" s="73">
         <v>30.124454498291016</v>
       </c>
-      <c r="U42" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="V42" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="W42" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="X42" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y42" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z42" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA42" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB42" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC42" s="69">
+      <c r="T42" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="U42" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="V42" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="W42" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="X42" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y42" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z42" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA42" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB42" s="69">
         <v>22.37237548828125</v>
       </c>
     </row>
-    <row r="43" spans="1:29">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>32</v>
       </c>
@@ -4930,19 +4928,22 @@
       <c r="M43" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P43" s="77" t="s">
+      <c r="O43" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="Q43" s="25" t="s">
+      <c r="P43" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="R43" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="S43" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="T43" s="30" t="s">
+      <c r="Q43" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="R43" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="S43" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="T43" s="41" t="s">
         <v>17</v>
       </c>
       <c r="U43" s="41" t="s">
@@ -4966,14 +4967,11 @@
       <c r="AA43" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="AB43" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC43" s="32" t="s">
+      <c r="AB43" s="32" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:29">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>46</v>
       </c>
@@ -5007,48 +5005,48 @@
       <c r="M44" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P44" s="78"/>
-      <c r="Q44" s="25" t="s">
+      <c r="O44" s="78"/>
+      <c r="P44" s="25" t="s">
         <v>31</v>
       </c>
+      <c r="Q44" s="29" t="s">
+        <v>152</v>
+      </c>
       <c r="R44" s="29" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="S44" s="29" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="T44" s="29" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="U44" s="29" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="V44" s="29" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="W44" s="29" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="X44" s="29" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y44" s="29" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Z44" s="29" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AA44" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="AB44" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="AC44" s="35">
+      <c r="AB44" s="35">
         <v>1000</v>
       </c>
     </row>
-    <row r="45" spans="1:29" ht="15.75" thickBot="1">
+    <row r="45" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>58</v>
       </c>
@@ -5082,11 +5080,14 @@
       <c r="M45" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P45" s="79"/>
-      <c r="Q45" s="25" t="s">
+      <c r="O45" s="79"/>
+      <c r="P45" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="R45" s="44" t="s">
+      <c r="Q45" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="R45" s="30" t="s">
         <v>45</v>
       </c>
       <c r="S45" s="30" t="s">
@@ -5095,35 +5096,32 @@
       <c r="T45" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="U45" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="V45" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="W45" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="X45" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y45" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z45" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA45" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB45" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC45" s="69">
+      <c r="U45" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="V45" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="W45" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="X45" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y45" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z45" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA45" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB45" s="69">
         <v>28.800485610961914</v>
       </c>
     </row>
-    <row r="46" spans="1:29">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>70</v>
       </c>
@@ -5159,19 +5157,22 @@
       <c r="M46" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P46" s="78" t="s">
+      <c r="O46" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="Q46" s="25" t="s">
+      <c r="P46" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="R46" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="S46" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="T46" s="30" t="s">
+      <c r="Q46" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="R46" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="S46" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="T46" s="41" t="s">
         <v>17</v>
       </c>
       <c r="U46" s="41" t="s">
@@ -5192,17 +5193,14 @@
       <c r="Z46" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="AA46" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB46" s="36" t="s">
+      <c r="AA46" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="AC46" s="32" t="s">
+      <c r="AB46" s="32" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:29">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>82</v>
       </c>
@@ -5238,48 +5236,48 @@
       <c r="M47" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P47" s="78"/>
-      <c r="Q47" s="25" t="s">
+      <c r="O47" s="78"/>
+      <c r="P47" s="25" t="s">
         <v>31</v>
       </c>
+      <c r="Q47" s="29" t="s">
+        <v>163</v>
+      </c>
       <c r="R47" s="29" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="S47" s="29" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="T47" s="29" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="U47" s="29" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="V47" s="29" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W47" s="29" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="X47" s="29" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y47" s="29" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Z47" s="29" t="s">
-        <v>171</v>
-      </c>
-      <c r="AA47" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="AB47" s="28" t="s">
+      <c r="AA47" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="AC47" s="35">
+      <c r="AB47" s="35">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:29" ht="15.75" thickBot="1">
+    <row r="48" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>94</v>
       </c>
@@ -5311,55 +5309,58 @@
         <v>105</v>
       </c>
       <c r="M48" s="8"/>
-      <c r="P48" s="78"/>
-      <c r="Q48" s="25" t="s">
+      <c r="O48" s="78"/>
+      <c r="P48" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="R48" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="S48" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="T48" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="U48" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="V48" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="W48" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="X48" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y48" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z48" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA48" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB48" s="68">
+      <c r="Q48" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="R48" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="S48" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="T48" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="U48" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="V48" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="W48" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="X48" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y48" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z48" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA48" s="68">
         <v>17.243448257446289</v>
       </c>
-      <c r="AC48" s="34">
+      <c r="AB48" s="34">
         <v>31.865697860717773</v>
       </c>
     </row>
-    <row r="49" spans="1:31">
-      <c r="P49" s="77" t="s">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="O49" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="Q49" s="25" t="s">
+      <c r="P49" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="R49" s="43" t="s">
+      <c r="Q49" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="R49" s="41" t="s">
         <v>17</v>
       </c>
       <c r="S49" s="41" t="s">
@@ -5386,59 +5387,56 @@
       <c r="Z49" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="AA49" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB49" s="36" t="s">
+      <c r="AA49" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="AC49" s="37" t="s">
+      <c r="AB49" s="37" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:31">
-      <c r="P50" s="78"/>
-      <c r="Q50" s="25" t="s">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="O50" s="78"/>
+      <c r="P50" s="25" t="s">
         <v>31</v>
       </c>
+      <c r="Q50" s="29" t="s">
+        <v>174</v>
+      </c>
       <c r="R50" s="29" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="S50" s="29" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="T50" s="29" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="U50" s="29" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="V50" s="29" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="W50" s="29" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="X50" s="29" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Y50" s="29" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Z50" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="AA50" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="AB50" s="28" t="s">
+      <c r="AA50" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="AC50" s="35">
+      <c r="AB50" s="35">
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:31" ht="15.75" thickBot="1">
+    <row r="51" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="80" t="s">
         <v>341</v>
       </c>
@@ -5459,48 +5457,48 @@
       <c r="M51" t="s">
         <v>343</v>
       </c>
-      <c r="P51" s="79"/>
-      <c r="Q51" s="25" t="s">
+      <c r="O51" s="79"/>
+      <c r="P51" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="R51" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="S51" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="T51" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="U51" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="V51" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="W51" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="X51" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y51" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z51" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA51" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB51" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC51" s="34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52" spans="1:31" ht="15.75" thickBot="1">
+      <c r="Q51" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="R51" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="S51" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="T51" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="U51" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="V51" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="W51" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="X51" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y51" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z51" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA51" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB51" s="34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12"/>
       <c r="B52" s="13"/>
       <c r="C52" s="21">
@@ -5536,17 +5534,17 @@
       <c r="M52" s="23">
         <v>11</v>
       </c>
-      <c r="N52" s="11">
-        <v>12</v>
-      </c>
-      <c r="O52" s="53"/>
-      <c r="P52" s="78" t="s">
+      <c r="N52" s="53"/>
+      <c r="O52" s="78" t="s">
         <v>94</v>
       </c>
-      <c r="Q52" s="25" t="s">
+      <c r="P52" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="R52" s="43" t="s">
+      <c r="Q52" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="R52" s="41" t="s">
         <v>17</v>
       </c>
       <c r="S52" s="41" t="s">
@@ -5573,15 +5571,12 @@
       <c r="Z52" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="AA52" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB52" s="36" t="s">
+      <c r="AA52" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="AC52" s="40"/>
-    </row>
-    <row r="53" spans="1:31">
+      <c r="AB52" s="40"/>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A53" s="77" t="s">
         <v>3</v>
       </c>
@@ -5615,50 +5610,47 @@
       </c>
       <c r="L53" s="54"/>
       <c r="M53" s="54"/>
-      <c r="N53" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="O53" s="59"/>
-      <c r="P53" s="78"/>
-      <c r="Q53" s="25" t="s">
+      <c r="N53" s="59"/>
+      <c r="O53" s="78"/>
+      <c r="P53" s="25" t="s">
         <v>31</v>
       </c>
+      <c r="Q53" s="29" t="s">
+        <v>184</v>
+      </c>
       <c r="R53" s="29" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="S53" s="29" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="T53" s="29" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="U53" s="29" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="V53" s="29" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="W53" s="29" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="X53" s="29" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Y53" s="29" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Z53" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="AA53" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="AB53" s="28" t="s">
+      <c r="AA53" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="AC53" s="27"/>
-    </row>
-    <row r="54" spans="1:31" ht="15.75" thickBot="1">
+      <c r="AB53" s="27"/>
+    </row>
+    <row r="54" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="78"/>
       <c r="B54" s="46" t="s">
         <v>31</v>
@@ -5690,50 +5682,47 @@
       </c>
       <c r="L54" s="64"/>
       <c r="M54" s="64"/>
-      <c r="N54" s="33">
-        <v>10000000</v>
-      </c>
-      <c r="O54" s="60"/>
-      <c r="P54" s="79"/>
-      <c r="Q54" s="26" t="s">
+      <c r="N54" s="60"/>
+      <c r="O54" s="79"/>
+      <c r="P54" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="R54" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="S54" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="T54" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="U54" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="V54" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="W54" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="X54" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y54" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z54" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA54" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB54" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC54" s="40"/>
-    </row>
-    <row r="55" spans="1:31" ht="15.75" thickBot="1">
+      <c r="Q54" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="R54" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="S54" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="T54" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="U54" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="V54" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="W54" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="X54" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y54" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z54" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA54" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB54" s="40"/>
+    </row>
+    <row r="55" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="79"/>
       <c r="B55" s="47" t="s">
         <v>44</v>
@@ -5765,12 +5754,9 @@
       </c>
       <c r="L55" s="57"/>
       <c r="M55" s="57"/>
-      <c r="N55" s="69">
-        <v>14.504809379577637</v>
-      </c>
-      <c r="O55" s="61"/>
-    </row>
-    <row r="56" spans="1:31" ht="15.75" thickBot="1">
+      <c r="N55" s="61"/>
+    </row>
+    <row r="56" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="77" t="s">
         <v>19</v>
       </c>
@@ -5804,26 +5790,23 @@
       </c>
       <c r="L56" s="57"/>
       <c r="M56" s="57"/>
-      <c r="N56" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="O56" s="59"/>
-      <c r="P56" s="80" t="s">
+      <c r="N56" s="59"/>
+      <c r="O56" s="80" t="s">
         <v>344</v>
       </c>
+      <c r="P56" s="80"/>
       <c r="Q56" s="80"/>
       <c r="R56" s="80"/>
       <c r="S56" s="80"/>
       <c r="T56" s="80"/>
       <c r="U56" s="80"/>
-      <c r="V56" s="80"/>
-      <c r="W56" s="20"/>
-      <c r="X56" s="81" t="s">
+      <c r="V56" s="20"/>
+      <c r="W56" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="Y56" s="81"/>
-    </row>
-    <row r="57" spans="1:31" ht="15.75" thickBot="1">
+      <c r="X56" s="81"/>
+    </row>
+    <row r="57" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="78"/>
       <c r="B57" s="46" t="s">
         <v>31</v>
@@ -5855,53 +5838,50 @@
       </c>
       <c r="L57" s="64"/>
       <c r="M57" s="64"/>
-      <c r="N57" s="33">
-        <v>1000000</v>
-      </c>
-      <c r="O57" s="60"/>
-      <c r="P57" s="12"/>
-      <c r="Q57" s="13"/>
-      <c r="R57" s="21">
+      <c r="N57" s="60"/>
+      <c r="O57" s="12"/>
+      <c r="P57" s="13"/>
+      <c r="Q57" s="21">
         <v>1</v>
       </c>
+      <c r="R57" s="22">
+        <v>2</v>
+      </c>
       <c r="S57" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T57" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U57" s="22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V57" s="22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W57" s="22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X57" s="22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y57" s="22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z57" s="22">
-        <v>9</v>
-      </c>
-      <c r="AA57" s="22">
         <v>10</v>
       </c>
-      <c r="AB57" s="23">
+      <c r="AA57" s="23">
         <v>11</v>
       </c>
-      <c r="AC57" s="11">
+      <c r="AB57" s="11">
         <v>12</v>
       </c>
-      <c r="AE57" t="s">
+      <c r="AD57" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="58" spans="1:31" ht="15.75" thickBot="1">
+    <row r="58" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="79"/>
       <c r="B58" s="47" t="s">
         <v>44</v>
@@ -5933,17 +5913,17 @@
       </c>
       <c r="L58" s="57"/>
       <c r="M58" s="57"/>
-      <c r="N58" s="69">
-        <v>16.872343063354492</v>
-      </c>
-      <c r="O58" s="61"/>
-      <c r="P58" s="77" t="s">
+      <c r="N58" s="61"/>
+      <c r="O58" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="Q58" s="45" t="s">
+      <c r="P58" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="R58" s="43" t="s">
+      <c r="Q58" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="R58" s="41" t="s">
         <v>17</v>
       </c>
       <c r="S58" s="41" t="s">
@@ -5970,18 +5950,15 @@
       <c r="Z58" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="AA58" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB58" s="54"/>
-      <c r="AC58" s="42" t="s">
+      <c r="AA58" s="54"/>
+      <c r="AB58" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="AE58" t="s">
+      <c r="AD58" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="59" spans="1:31">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A59" s="77" t="s">
         <v>32</v>
       </c>
@@ -6015,50 +5992,47 @@
       </c>
       <c r="L59" s="57"/>
       <c r="M59" s="57"/>
-      <c r="N59" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="O59" s="59"/>
-      <c r="P59" s="78"/>
-      <c r="Q59" s="46" t="s">
+      <c r="N59" s="59"/>
+      <c r="O59" s="78"/>
+      <c r="P59" s="46" t="s">
         <v>31</v>
       </c>
+      <c r="Q59" s="29" t="s">
+        <v>196</v>
+      </c>
       <c r="R59" s="29" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="S59" s="29" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="T59" s="29" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U59" s="29" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="V59" s="29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="W59" s="29" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="X59" s="29" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y59" s="29" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Z59" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA59" s="29" t="s">
         <v>205</v>
       </c>
-      <c r="AB59" s="64"/>
-      <c r="AC59" s="33">
+      <c r="AA59" s="64"/>
+      <c r="AB59" s="33">
         <v>10000000</v>
       </c>
     </row>
-    <row r="60" spans="1:31" ht="15.75" thickBot="1">
+    <row r="60" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="78"/>
       <c r="B60" s="46" t="s">
         <v>31</v>
@@ -6090,50 +6064,47 @@
       </c>
       <c r="L60" s="64"/>
       <c r="M60" s="64"/>
-      <c r="N60" s="33">
-        <v>100000</v>
-      </c>
-      <c r="O60" s="60"/>
-      <c r="P60" s="79"/>
-      <c r="Q60" s="47" t="s">
+      <c r="N60" s="60"/>
+      <c r="O60" s="79"/>
+      <c r="P60" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="R60" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="S60" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="T60" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="U60" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="V60" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="W60" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="X60" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y60" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z60" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA60" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB60" s="57"/>
-      <c r="AC60" s="34">
+      <c r="Q60" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="R60" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="S60" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="T60" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="U60" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="V60" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="W60" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="X60" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y60" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z60" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA60" s="57"/>
+      <c r="AB60" s="34">
         <v>14.989063262939453</v>
       </c>
     </row>
-    <row r="61" spans="1:31" ht="15.75" thickBot="1">
+    <row r="61" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="79"/>
       <c r="B61" s="47" t="s">
         <v>44</v>
@@ -6165,17 +6136,17 @@
       </c>
       <c r="L61" s="57"/>
       <c r="M61" s="57"/>
-      <c r="N61" s="69">
-        <v>23.019723892211914</v>
-      </c>
-      <c r="O61" s="61"/>
-      <c r="P61" s="77" t="s">
+      <c r="N61" s="61"/>
+      <c r="O61" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="Q61" s="45" t="s">
+      <c r="P61" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="R61" s="43" t="s">
+      <c r="Q61" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="R61" s="41" t="s">
         <v>17</v>
       </c>
       <c r="S61" s="41" t="s">
@@ -6202,15 +6173,12 @@
       <c r="Z61" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="AA61" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB61" s="57"/>
-      <c r="AC61" s="32" t="s">
+      <c r="AA61" s="57"/>
+      <c r="AB61" s="32" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:31">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A62" s="77" t="s">
         <v>46</v>
       </c>
@@ -6244,50 +6212,47 @@
       </c>
       <c r="L62" s="57"/>
       <c r="M62" s="57"/>
-      <c r="N62" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="O62" s="59"/>
-      <c r="P62" s="78"/>
-      <c r="Q62" s="46" t="s">
+      <c r="N62" s="59"/>
+      <c r="O62" s="78"/>
+      <c r="P62" s="46" t="s">
         <v>31</v>
       </c>
+      <c r="Q62" s="29" t="s">
+        <v>207</v>
+      </c>
       <c r="R62" s="29" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="S62" s="29" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="T62" s="29" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="U62" s="29" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="V62" s="29" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="W62" s="29" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="X62" s="29" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Y62" s="29" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Z62" s="29" t="s">
-        <v>215</v>
-      </c>
-      <c r="AA62" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="AB62" s="64"/>
-      <c r="AC62" s="33">
+      <c r="AA62" s="64"/>
+      <c r="AB62" s="33">
         <v>1000000</v>
       </c>
     </row>
-    <row r="63" spans="1:31" ht="15.75" thickBot="1">
+    <row r="63" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="78"/>
       <c r="B63" s="46" t="s">
         <v>31</v>
@@ -6319,50 +6284,47 @@
       </c>
       <c r="L63" s="64"/>
       <c r="M63" s="64"/>
-      <c r="N63" s="33">
-        <v>10000</v>
-      </c>
-      <c r="O63" s="60"/>
-      <c r="P63" s="79"/>
-      <c r="Q63" s="47" t="s">
+      <c r="N63" s="60"/>
+      <c r="O63" s="79"/>
+      <c r="P63" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="R63" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="S63" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="T63" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="U63" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="V63" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="W63" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="X63" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y63" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z63" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA63" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB63" s="57"/>
-      <c r="AC63" s="34">
+      <c r="Q63" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="R63" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="S63" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="T63" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="U63" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="V63" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="W63" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="X63" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y63" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z63" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA63" s="57"/>
+      <c r="AB63" s="34">
         <v>18.62529182434082</v>
       </c>
     </row>
-    <row r="64" spans="1:31" ht="15.75" thickBot="1">
+    <row r="64" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="79"/>
       <c r="B64" s="47" t="s">
         <v>44</v>
@@ -6394,17 +6356,17 @@
       </c>
       <c r="L64" s="57"/>
       <c r="M64" s="57"/>
-      <c r="N64" s="69">
-        <v>24.515701293945313</v>
-      </c>
-      <c r="O64" s="61"/>
-      <c r="P64" s="77" t="s">
+      <c r="N64" s="61"/>
+      <c r="O64" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="Q64" s="45" t="s">
+      <c r="P64" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="R64" s="43" t="s">
+      <c r="Q64" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="R64" s="41" t="s">
         <v>17</v>
       </c>
       <c r="S64" s="41" t="s">
@@ -6431,15 +6393,12 @@
       <c r="Z64" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="AA64" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB64" s="57"/>
-      <c r="AC64" s="32" t="s">
+      <c r="AA64" s="57"/>
+      <c r="AB64" s="32" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:29">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A65" s="77" t="s">
         <v>58</v>
       </c>
@@ -6473,50 +6432,47 @@
       </c>
       <c r="L65" s="57"/>
       <c r="M65" s="57"/>
-      <c r="N65" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="O65" s="59"/>
-      <c r="P65" s="78"/>
-      <c r="Q65" s="46" t="s">
+      <c r="N65" s="59"/>
+      <c r="O65" s="78"/>
+      <c r="P65" s="46" t="s">
         <v>31</v>
       </c>
+      <c r="Q65" s="29" t="s">
+        <v>218</v>
+      </c>
       <c r="R65" s="29" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="S65" s="29" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="T65" s="29" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="U65" s="29" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="V65" s="29" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="W65" s="29" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="X65" s="29" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Y65" s="29" t="s">
-        <v>225</v>
-      </c>
-      <c r="Z65" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="AA65" s="50" t="s">
+      <c r="Z65" s="50" t="s">
         <v>227</v>
       </c>
-      <c r="AB65" s="64"/>
-      <c r="AC65" s="33">
+      <c r="AA65" s="64"/>
+      <c r="AB65" s="33">
         <v>100000</v>
       </c>
     </row>
-    <row r="66" spans="1:29" ht="15.75" thickBot="1">
+    <row r="66" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="78"/>
       <c r="B66" s="46" t="s">
         <v>31</v>
@@ -6548,50 +6504,47 @@
       </c>
       <c r="L66" s="64"/>
       <c r="M66" s="64"/>
-      <c r="N66" s="35">
-        <v>1000</v>
-      </c>
-      <c r="O66" s="62"/>
-      <c r="P66" s="79"/>
-      <c r="Q66" s="47" t="s">
+      <c r="N66" s="62"/>
+      <c r="O66" s="79"/>
+      <c r="P66" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="R66" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="S66" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="T66" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="U66" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="V66" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="W66" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="X66" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y66" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z66" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA66" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB66" s="57"/>
-      <c r="AC66" s="34">
+      <c r="Q66" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="R66" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="S66" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="T66" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="U66" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="V66" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="W66" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="X66" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y66" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z66" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA66" s="57"/>
+      <c r="AB66" s="34">
         <v>20.720235824584961</v>
       </c>
     </row>
-    <row r="67" spans="1:29" ht="15.75" thickBot="1">
+    <row r="67" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="79"/>
       <c r="B67" s="47" t="s">
         <v>44</v>
@@ -6623,17 +6576,17 @@
       </c>
       <c r="L67" s="57"/>
       <c r="M67" s="57"/>
-      <c r="N67" s="69">
-        <v>26.484502792358398</v>
-      </c>
-      <c r="O67" s="61"/>
-      <c r="P67" s="77" t="s">
+      <c r="N67" s="61"/>
+      <c r="O67" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="Q67" s="45" t="s">
+      <c r="P67" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="R67" s="43" t="s">
+      <c r="Q67" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="R67" s="41" t="s">
         <v>17</v>
       </c>
       <c r="S67" s="41" t="s">
@@ -6660,15 +6613,12 @@
       <c r="Z67" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="AA67" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB67" s="57"/>
-      <c r="AC67" s="32" t="s">
+      <c r="AA67" s="57"/>
+      <c r="AB67" s="32" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:29">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A68" s="77" t="s">
         <v>70</v>
       </c>
@@ -6704,50 +6654,47 @@
       <c r="M68" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="N68" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="O68" s="59"/>
-      <c r="P68" s="78"/>
-      <c r="Q68" s="46" t="s">
+      <c r="N68" s="59"/>
+      <c r="O68" s="78"/>
+      <c r="P68" s="46" t="s">
         <v>31</v>
       </c>
+      <c r="Q68" s="29" t="s">
+        <v>228</v>
+      </c>
       <c r="R68" s="29" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="S68" s="29" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="T68" s="29" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="U68" s="29" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="V68" s="29" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="W68" s="29" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="X68" s="29" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Y68" s="29" t="s">
-        <v>235</v>
-      </c>
-      <c r="Z68" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="AA68" s="50" t="s">
+      <c r="Z68" s="50" t="s">
         <v>237</v>
       </c>
-      <c r="AB68" s="64"/>
-      <c r="AC68" s="33">
+      <c r="AA68" s="64"/>
+      <c r="AB68" s="33">
         <v>10000</v>
       </c>
     </row>
-    <row r="69" spans="1:29" ht="15.75" thickBot="1">
+    <row r="69" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="78"/>
       <c r="B69" s="46" t="s">
         <v>31</v>
@@ -6781,50 +6728,47 @@
       <c r="M69" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="N69" s="35">
-        <v>100</v>
-      </c>
-      <c r="O69" s="62"/>
-      <c r="P69" s="79"/>
-      <c r="Q69" s="47" t="s">
+      <c r="N69" s="62"/>
+      <c r="O69" s="79"/>
+      <c r="P69" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="R69" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="S69" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="T69" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="U69" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="V69" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="W69" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="X69" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y69" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z69" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA69" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB69" s="57"/>
-      <c r="AC69" s="34">
+      <c r="Q69" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="R69" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="S69" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="T69" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="U69" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="V69" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="W69" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="X69" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y69" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z69" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA69" s="57"/>
+      <c r="AB69" s="34">
         <v>25.930782318115234</v>
       </c>
     </row>
-    <row r="70" spans="1:29" ht="15.75" thickBot="1">
+    <row r="70" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="79"/>
       <c r="B70" s="47" t="s">
         <v>44</v>
@@ -6858,17 +6802,17 @@
       <c r="M70" s="48">
         <v>16.943820953369141</v>
       </c>
-      <c r="N70" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="O70" s="61"/>
-      <c r="P70" s="77" t="s">
+      <c r="N70" s="61"/>
+      <c r="O70" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="Q70" s="45" t="s">
+      <c r="P70" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="R70" s="43" t="s">
+      <c r="Q70" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="R70" s="41" t="s">
         <v>17</v>
       </c>
       <c r="S70" s="41" t="s">
@@ -6895,15 +6839,12 @@
       <c r="Z70" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="AA70" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB70" s="57"/>
-      <c r="AC70" s="32" t="s">
+      <c r="AA70" s="57"/>
+      <c r="AB70" s="32" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:29">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A71" s="77" t="s">
         <v>82</v>
       </c>
@@ -6939,50 +6880,47 @@
       <c r="M71" s="51" t="s">
         <v>173</v>
       </c>
-      <c r="N71" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="O71" s="63"/>
-      <c r="P71" s="78"/>
-      <c r="Q71" s="46" t="s">
+      <c r="N71" s="63"/>
+      <c r="O71" s="78"/>
+      <c r="P71" s="46" t="s">
         <v>31</v>
       </c>
+      <c r="Q71" s="29" t="s">
+        <v>238</v>
+      </c>
       <c r="R71" s="29" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="S71" s="29" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="T71" s="29" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="U71" s="29" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="V71" s="29" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="W71" s="29" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="X71" s="29" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Y71" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="Z71" s="29" t="s">
         <v>246</v>
       </c>
-      <c r="AA71" s="50" t="s">
+      <c r="Z71" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="AB71" s="64"/>
-      <c r="AC71" s="35">
+      <c r="AA71" s="64"/>
+      <c r="AB71" s="35">
         <v>1000</v>
       </c>
     </row>
-    <row r="72" spans="1:29" ht="15.75" thickBot="1">
+    <row r="72" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="78"/>
       <c r="B72" s="46" t="s">
         <v>31</v>
@@ -7016,50 +6954,47 @@
       <c r="M72" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="N72" s="35">
-        <v>10</v>
-      </c>
-      <c r="O72" s="62"/>
-      <c r="P72" s="79"/>
-      <c r="Q72" s="47" t="s">
+      <c r="N72" s="62"/>
+      <c r="O72" s="79"/>
+      <c r="P72" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="R72" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="S72" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="T72" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="U72" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="V72" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="W72" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="X72" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y72" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z72" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA72" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB72" s="57"/>
-      <c r="AC72" s="34">
+      <c r="Q72" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="R72" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="S72" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="T72" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="U72" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="V72" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="W72" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="X72" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y72" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z72" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA72" s="57"/>
+      <c r="AB72" s="34">
         <v>28.998870849609375</v>
       </c>
     </row>
-    <row r="73" spans="1:29" ht="15.75" thickBot="1">
+    <row r="73" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="79"/>
       <c r="B73" s="47" t="s">
         <v>44</v>
@@ -7093,17 +7028,17 @@
       <c r="M73" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="N73" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="O73" s="61"/>
-      <c r="P73" s="77" t="s">
+      <c r="N73" s="61"/>
+      <c r="O73" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="Q73" s="45" t="s">
+      <c r="P73" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="R73" s="43" t="s">
+      <c r="Q73" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="R73" s="41" t="s">
         <v>17</v>
       </c>
       <c r="S73" s="41" t="s">
@@ -7130,17 +7065,14 @@
       <c r="Z73" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="AA73" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB73" s="51" t="s">
+      <c r="AA73" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="AC73" s="32" t="s">
+      <c r="AB73" s="32" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:29">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A74" s="77" t="s">
         <v>94</v>
       </c>
@@ -7174,50 +7106,49 @@
       <c r="M74" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="N74" s="40"/>
-      <c r="O74" s="59"/>
-      <c r="P74" s="78"/>
-      <c r="Q74" s="46" t="s">
+      <c r="N74" s="59"/>
+      <c r="O74" s="78"/>
+      <c r="P74" s="46" t="s">
         <v>31</v>
       </c>
+      <c r="Q74" s="29" t="s">
+        <v>248</v>
+      </c>
       <c r="R74" s="29" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="S74" s="29" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="T74" s="29" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="U74" s="29" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="V74" s="29" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="W74" s="29" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="X74" s="29" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Y74" s="29" t="s">
-        <v>255</v>
-      </c>
-      <c r="Z74" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="AA74" s="50" t="s">
+      <c r="Z74" s="50" t="s">
         <v>257</v>
       </c>
-      <c r="AB74" s="52" t="s">
+      <c r="AA74" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="AC74" s="35">
+      <c r="AB74" s="35">
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:29" ht="15.75" thickBot="1">
+    <row r="75" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="78"/>
       <c r="B75" s="46" t="s">
         <v>31</v>
@@ -7249,50 +7180,49 @@
       <c r="M75" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="N75" s="27"/>
-      <c r="O75" s="62"/>
-      <c r="P75" s="79"/>
-      <c r="Q75" s="47" t="s">
+      <c r="N75" s="62"/>
+      <c r="O75" s="79"/>
+      <c r="P75" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="R75" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="S75" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="T75" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="U75" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="V75" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="W75" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="X75" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y75" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z75" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA75" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB75" s="48">
+      <c r="Q75" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="R75" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="S75" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="T75" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="U75" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="V75" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="W75" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="X75" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y75" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z75" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA75" s="48">
         <v>18.529867172241211</v>
       </c>
-      <c r="AC75" s="74" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="76" spans="1:29" ht="15.75" thickBot="1">
+      <c r="AB75" s="74" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="79"/>
       <c r="B76" s="47" t="s">
         <v>44</v>
@@ -7324,15 +7254,17 @@
       <c r="M76" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="N76" s="40"/>
-      <c r="O76" s="59"/>
-      <c r="P76" s="77" t="s">
+      <c r="N76" s="59"/>
+      <c r="O76" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="Q76" s="45" t="s">
+      <c r="P76" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="R76" s="43" t="s">
+      <c r="Q76" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="R76" s="41" t="s">
         <v>17</v>
       </c>
       <c r="S76" s="41" t="s">
@@ -7359,108 +7291,108 @@
       <c r="Z76" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="AA76" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB76" s="51" t="s">
+      <c r="AA76" s="51" t="s">
         <v>173</v>
       </c>
-      <c r="AC76" s="37" t="s">
+      <c r="AB76" s="37" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:29">
-      <c r="P77" s="78"/>
-      <c r="Q77" s="46" t="s">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="O77" s="78"/>
+      <c r="P77" s="46" t="s">
         <v>31</v>
       </c>
+      <c r="Q77" s="29" t="s">
+        <v>258</v>
+      </c>
       <c r="R77" s="29" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="S77" s="29" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="T77" s="29" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="U77" s="29" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="V77" s="29" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="W77" s="29" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="X77" s="29" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Y77" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="Z77" s="29" t="s">
         <v>266</v>
       </c>
-      <c r="AA77" s="50" t="s">
+      <c r="Z77" s="50" t="s">
         <v>267</v>
       </c>
-      <c r="AB77" s="52" t="s">
+      <c r="AA77" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="AC77" s="35">
+      <c r="AB77" s="35">
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:29" ht="15.75" thickBot="1">
-      <c r="P78" s="79"/>
-      <c r="Q78" s="47" t="s">
+    <row r="78" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O78" s="79"/>
+      <c r="P78" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="R78" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="S78" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="T78" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="U78" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="V78" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="W78" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="X78" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y78" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z78" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA78" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB78" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC78" s="74" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="79" spans="1:29">
-      <c r="P79" s="77" t="s">
+      <c r="Q78" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="R78" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="S78" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="T78" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="U78" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="V78" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="W78" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="X78" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y78" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z78" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA78" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB78" s="74" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="O79" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="Q79" s="45" t="s">
+      <c r="P79" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="R79" s="43" t="s">
+      <c r="Q79" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="R79" s="41" t="s">
         <v>17</v>
       </c>
       <c r="S79" s="41" t="s">
@@ -7484,92 +7416,90 @@
       <c r="Y79" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="Z79" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="AA79" s="54"/>
-      <c r="AB79" s="36" t="s">
+      <c r="Z79" s="54"/>
+      <c r="AA79" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="AC79" s="40"/>
-    </row>
-    <row r="80" spans="1:29">
-      <c r="P80" s="78"/>
-      <c r="Q80" s="46" t="s">
+      <c r="AB79" s="40"/>
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="O80" s="78"/>
+      <c r="P80" s="46" t="s">
         <v>31</v>
       </c>
+      <c r="Q80" s="29" t="s">
+        <v>268</v>
+      </c>
       <c r="R80" s="29" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="S80" s="29" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="T80" s="29" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="U80" s="29" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="V80" s="29" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="W80" s="29" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="X80" s="29" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Y80" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="Z80" s="29" t="s">
         <v>276</v>
       </c>
-      <c r="AA80" s="58"/>
-      <c r="AB80" s="28" t="s">
+      <c r="Z80" s="58"/>
+      <c r="AA80" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="AC80" s="27"/>
-    </row>
-    <row r="81" spans="16:29" ht="15.75" thickBot="1">
-      <c r="P81" s="79"/>
-      <c r="Q81" s="47" t="s">
+      <c r="AB80" s="27"/>
+    </row>
+    <row r="81" spans="15:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O81" s="79"/>
+      <c r="P81" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="R81" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="S81" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="T81" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="U81" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="V81" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="W81" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="X81" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y81" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z81" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA81" s="57"/>
-      <c r="AB81" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC81" s="40"/>
-    </row>
-    <row r="85" spans="16:29">
+      <c r="Q81" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="R81" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="S81" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="T81" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="U81" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="V81" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="W81" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="X81" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y81" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z81" s="57"/>
+      <c r="AA81" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB81" s="40"/>
+    </row>
+    <row r="85" spans="15:28" x14ac:dyDescent="0.2">
+      <c r="P85" s="66"/>
       <c r="Q85" s="66"/>
       <c r="R85" s="66"/>
       <c r="S85" s="66"/>
@@ -7579,9 +7509,9 @@
       <c r="W85" s="66"/>
       <c r="X85" s="66"/>
       <c r="Y85" s="66"/>
-      <c r="Z85" s="66"/>
-    </row>
-    <row r="86" spans="16:29">
+    </row>
+    <row r="86" spans="15:28" x14ac:dyDescent="0.2">
+      <c r="P86" s="66"/>
       <c r="Q86" s="66"/>
       <c r="R86" s="66"/>
       <c r="S86" s="66"/>
@@ -7591,9 +7521,9 @@
       <c r="W86" s="66"/>
       <c r="X86" s="66"/>
       <c r="Y86" s="66"/>
-      <c r="Z86" s="66"/>
-    </row>
-    <row r="87" spans="16:29">
+    </row>
+    <row r="87" spans="15:28" x14ac:dyDescent="0.2">
+      <c r="P87" s="66"/>
       <c r="Q87" s="66"/>
       <c r="R87" s="66"/>
       <c r="S87" s="66"/>
@@ -7602,10 +7532,10 @@
       <c r="V87" s="66"/>
       <c r="W87" s="66"/>
       <c r="X87" s="66"/>
-      <c r="Y87" s="66"/>
-      <c r="Z87" s="67"/>
-    </row>
-    <row r="88" spans="16:29">
+      <c r="Y87" s="67"/>
+    </row>
+    <row r="88" spans="15:28" x14ac:dyDescent="0.2">
+      <c r="P88" s="66"/>
       <c r="Q88" s="66"/>
       <c r="R88" s="66"/>
       <c r="S88" s="66"/>
@@ -7614,10 +7544,10 @@
       <c r="V88" s="66"/>
       <c r="W88" s="66"/>
       <c r="X88" s="66"/>
-      <c r="Y88" s="66"/>
-      <c r="Z88" s="67"/>
-    </row>
-    <row r="89" spans="16:29">
+      <c r="Y88" s="67"/>
+    </row>
+    <row r="89" spans="15:28" x14ac:dyDescent="0.2">
+      <c r="P89" s="66"/>
       <c r="Q89" s="66"/>
       <c r="R89" s="66"/>
       <c r="S89" s="66"/>
@@ -7626,10 +7556,10 @@
       <c r="V89" s="66"/>
       <c r="W89" s="66"/>
       <c r="X89" s="66"/>
-      <c r="Y89" s="66"/>
-      <c r="Z89" s="67"/>
-    </row>
-    <row r="90" spans="16:29">
+      <c r="Y89" s="67"/>
+    </row>
+    <row r="90" spans="15:28" x14ac:dyDescent="0.2">
+      <c r="P90" s="66"/>
       <c r="Q90" s="66"/>
       <c r="R90" s="66"/>
       <c r="S90" s="66"/>
@@ -7638,10 +7568,10 @@
       <c r="V90" s="66"/>
       <c r="W90" s="66"/>
       <c r="X90" s="66"/>
-      <c r="Y90" s="66"/>
-      <c r="Z90" s="67"/>
-    </row>
-    <row r="91" spans="16:29">
+      <c r="Y90" s="67"/>
+    </row>
+    <row r="91" spans="15:28" x14ac:dyDescent="0.2">
+      <c r="P91" s="66"/>
       <c r="Q91" s="66"/>
       <c r="R91" s="66"/>
       <c r="S91" s="66"/>
@@ -7650,10 +7580,10 @@
       <c r="V91" s="66"/>
       <c r="W91" s="66"/>
       <c r="X91" s="66"/>
-      <c r="Y91" s="66"/>
-      <c r="Z91" s="67"/>
-    </row>
-    <row r="92" spans="16:29">
+      <c r="Y91" s="67"/>
+    </row>
+    <row r="92" spans="15:28" x14ac:dyDescent="0.2">
+      <c r="P92" s="66"/>
       <c r="Q92" s="66"/>
       <c r="R92" s="66"/>
       <c r="S92" s="66"/>
@@ -7662,53 +7592,10 @@
       <c r="V92" s="66"/>
       <c r="W92" s="66"/>
       <c r="X92" s="66"/>
-      <c r="Y92" s="66"/>
-      <c r="Z92" s="18"/>
+      <c r="Y92" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="P79:P81"/>
-    <mergeCell ref="P56:V56"/>
-    <mergeCell ref="P29:V29"/>
-    <mergeCell ref="P58:P60"/>
-    <mergeCell ref="P61:P63"/>
-    <mergeCell ref="P64:P66"/>
-    <mergeCell ref="P67:P69"/>
-    <mergeCell ref="P31:P33"/>
-    <mergeCell ref="P34:P36"/>
-    <mergeCell ref="P37:P39"/>
-    <mergeCell ref="P40:P42"/>
-    <mergeCell ref="P43:P45"/>
-    <mergeCell ref="P52:P54"/>
-    <mergeCell ref="P73:P75"/>
-    <mergeCell ref="P76:P78"/>
-    <mergeCell ref="P16:P18"/>
-    <mergeCell ref="P19:P21"/>
-    <mergeCell ref="P22:P24"/>
-    <mergeCell ref="P25:P27"/>
-    <mergeCell ref="P46:P48"/>
-    <mergeCell ref="P49:P51"/>
-    <mergeCell ref="P70:P72"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="X29:Y29"/>
-    <mergeCell ref="X56:Y56"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="P7:P9"/>
-    <mergeCell ref="P10:P12"/>
-    <mergeCell ref="P13:P15"/>
-    <mergeCell ref="P2:V2"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="A39:G39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="A51:G51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="A53:A55"/>
     <mergeCell ref="A71:A73"/>
     <mergeCell ref="A74:A76"/>
     <mergeCell ref="A56:A58"/>
@@ -7716,6 +7603,48 @@
     <mergeCell ref="A62:A64"/>
     <mergeCell ref="A65:A67"/>
     <mergeCell ref="A68:A70"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="A51:G51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="O70:O72"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="W29:X29"/>
+    <mergeCell ref="W56:X56"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="O4:O6"/>
+    <mergeCell ref="O7:O9"/>
+    <mergeCell ref="O10:O12"/>
+    <mergeCell ref="O13:O15"/>
+    <mergeCell ref="O2:U2"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="O16:O18"/>
+    <mergeCell ref="O19:O21"/>
+    <mergeCell ref="O22:O24"/>
+    <mergeCell ref="O25:O27"/>
+    <mergeCell ref="O46:O48"/>
+    <mergeCell ref="O79:O81"/>
+    <mergeCell ref="O56:U56"/>
+    <mergeCell ref="O29:U29"/>
+    <mergeCell ref="O58:O60"/>
+    <mergeCell ref="O61:O63"/>
+    <mergeCell ref="O64:O66"/>
+    <mergeCell ref="O67:O69"/>
+    <mergeCell ref="O31:O33"/>
+    <mergeCell ref="O34:O36"/>
+    <mergeCell ref="O37:O39"/>
+    <mergeCell ref="O40:O42"/>
+    <mergeCell ref="O43:O45"/>
+    <mergeCell ref="O52:O54"/>
+    <mergeCell ref="O73:O75"/>
+    <mergeCell ref="O76:O78"/>
+    <mergeCell ref="O49:O51"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7724,6 +7653,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="68f9834a-47db-4dd9-9f26-213cbb22c8a0">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="50bf555d-2b28-452c-9b06-416f2f267a7f" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003A215D7414098A47AE0058BB79CA1FAC" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="99600bc529288f7394c1d40d0e8463b8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="68f9834a-47db-4dd9-9f26-213cbb22c8a0" xmlns:ns3="50bf555d-2b28-452c-9b06-416f2f267a7f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a7132ee0333719944cfc193eb779b4a0" ns2:_="" ns3:_="">
     <xsd:import namespace="68f9834a-47db-4dd9-9f26-213cbb22c8a0"/>
@@ -7930,34 +7879,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="68f9834a-47db-4dd9-9f26-213cbb22c8a0">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="50bf555d-2b28-452c-9b06-416f2f267a7f" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8BF91D9-E0C1-4C92-B132-5B972321082F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CA65185-49A6-4605-9649-AC256AAA6677}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCAB6429-970F-40EA-B09E-67569D80AC78}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DCAB6429-970F-40EA-B09E-67569D80AC78}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="68f9834a-47db-4dd9-9f26-213cbb22c8a0"/>
+    <ds:schemaRef ds:uri="50bf555d-2b28-452c-9b06-416f2f267a7f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CA65185-49A6-4605-9649-AC256AAA6677}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8BF91D9-E0C1-4C92-B132-5B972321082F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="68f9834a-47db-4dd9-9f26-213cbb22c8a0"/>
+    <ds:schemaRef ds:uri="50bf555d-2b28-452c-9b06-416f2f267a7f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>